--- a/cfg/office_map.xlsx
+++ b/cfg/office_map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5882E02C-6638-4172-AFC9-445AB2FCB369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69427A09-270E-44C4-8F22-9C86C78ED306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41E8E826-F1A0-47CB-831D-0A93E32E8511}"/>
   </bookViews>
@@ -90,7 +90,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightTrellis"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -528,15 +568,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0566D4D-405E-4298-A931-9411BC5C0789}">
-  <dimension ref="A1:AM40"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="U52" sqref="U52"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="AW74" sqref="AW74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O1">
+        <v>4</v>
+      </c>
       <c r="P1">
         <v>4</v>
       </c>
@@ -607,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N2">
         <v>4</v>
       </c>
@@ -615,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -651,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="AB2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC2">
         <v>3</v>
@@ -669,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="AH2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI2">
         <v>3</v>
@@ -684,7 +730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>4</v>
       </c>
@@ -752,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="AB3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC3">
         <v>3</v>
@@ -770,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>3</v>
@@ -788,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>4</v>
       </c>
@@ -856,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="AB4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>3</v>
@@ -874,7 +920,7 @@
         <v>3</v>
       </c>
       <c r="AH4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI4">
         <v>3</v>
@@ -892,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>4</v>
       </c>
@@ -933,25 +979,25 @@
         <v>2</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z5">
         <v>3</v>
@@ -960,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="AB5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>3</v>
@@ -978,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="AH5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -996,7 +1042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1046,25 +1092,25 @@
         <v>3</v>
       </c>
       <c r="S6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z6">
         <v>3</v>
@@ -1073,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1091,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="AH6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>3</v>
@@ -1109,7 +1155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1192,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="AB7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC7">
         <v>3</v>
@@ -1210,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <v>3</v>
@@ -1228,7 +1274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1311,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="AB8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC8">
         <v>3</v>
@@ -1329,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI8">
         <v>1</v>
@@ -1347,7 +1393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1385,13 +1431,13 @@
         <v>3</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1400,55 +1446,55 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC9">
         <v>3</v>
       </c>
       <c r="AD9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1466,7 +1512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1585,7 +1631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1682,6 +1728,9 @@
       <c r="AF11">
         <v>3</v>
       </c>
+      <c r="AG11">
+        <v>3</v>
+      </c>
       <c r="AH11">
         <v>0</v>
       </c>
@@ -1701,7 +1750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>4</v>
       </c>
@@ -1795,26 +1844,29 @@
       <c r="AF12">
         <v>0</v>
       </c>
+      <c r="AG12">
+        <v>3</v>
+      </c>
       <c r="AH12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4</v>
       </c>
@@ -1849,7 +1901,7 @@
         <v>3</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -1908,8 +1960,29 @@
       <c r="AF13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>3</v>
+      </c>
+      <c r="AI13">
+        <v>3</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>3</v>
+      </c>
+      <c r="AL13">
+        <v>3</v>
+      </c>
+      <c r="AM13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>4</v>
       </c>
@@ -1941,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -2000,8 +2073,29 @@
       <c r="AF14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>3</v>
+      </c>
+      <c r="AI14">
+        <v>3</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>3</v>
+      </c>
+      <c r="AL14">
+        <v>3</v>
+      </c>
+      <c r="AM14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>4</v>
       </c>
@@ -2033,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -2092,8 +2186,29 @@
       <c r="AF15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>3</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>3</v>
+      </c>
+      <c r="AL15">
+        <v>3</v>
+      </c>
+      <c r="AM15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>4</v>
       </c>
@@ -2128,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -2184,8 +2299,29 @@
       <c r="AF16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="4:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG16">
+        <v>3</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>3</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>3</v>
+      </c>
+      <c r="AL16">
+        <v>3</v>
+      </c>
+      <c r="AM16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>4</v>
       </c>
@@ -2238,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V17">
         <v>3</v>
@@ -2247,7 +2383,7 @@
         <v>3</v>
       </c>
       <c r="X17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>3</v>
@@ -2273,8 +2409,29 @@
       <c r="AF17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="4:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>3</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>3</v>
+      </c>
+      <c r="AL17">
+        <v>3</v>
+      </c>
+      <c r="AM17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>4</v>
       </c>
@@ -2360,31 +2517,31 @@
         <v>2</v>
       </c>
       <c r="AF18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="4:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>4</v>
       </c>
@@ -2494,7 +2651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="4:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>4</v>
       </c>
@@ -2601,7 +2758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="4:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>4</v>
       </c>
@@ -2660,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>3</v>
@@ -2684,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG21">
         <v>2</v>
@@ -2708,7 +2865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="4:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>4</v>
       </c>
@@ -2788,7 +2945,7 @@
         <v>3</v>
       </c>
       <c r="AF22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG22">
         <v>3</v>
@@ -2812,7 +2969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="4:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>4</v>
       </c>
@@ -2847,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2892,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="AF23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG23">
         <v>1</v>
@@ -2916,7 +3073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="4:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>4</v>
       </c>
@@ -2939,7 +3096,7 @@
         <v>3</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O24">
         <v>3</v>
@@ -2993,7 +3150,7 @@
         <v>3</v>
       </c>
       <c r="AF24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG24">
         <v>2</v>
@@ -3017,7 +3174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="4:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>4</v>
       </c>
@@ -3034,7 +3191,7 @@
         <v>3</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25">
         <v>3</v>
@@ -3088,37 +3245,37 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="4:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>4</v>
       </c>
@@ -3126,13 +3283,13 @@
         <v>4</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -3189,10 +3346,37 @@
         <v>0</v>
       </c>
       <c r="AD26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="4:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>3</v>
+      </c>
+      <c r="AG26">
+        <v>3</v>
+      </c>
+      <c r="AH26">
+        <v>3</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>3</v>
+      </c>
+      <c r="AL26">
+        <v>3</v>
+      </c>
+      <c r="AM26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="4:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H27">
         <v>4</v>
       </c>
@@ -3260,10 +3444,37 @@
         <v>2</v>
       </c>
       <c r="AD27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="4:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>3</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27">
+        <v>3</v>
+      </c>
+      <c r="AI27">
+        <v>3</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>3</v>
+      </c>
+      <c r="AL27">
+        <v>4</v>
+      </c>
+      <c r="AM27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="4:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H28">
         <v>4</v>
       </c>
@@ -3331,10 +3542,37 @@
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="4:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>3</v>
+      </c>
+      <c r="AI28">
+        <v>3</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>3</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="4:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H29">
         <v>4</v>
       </c>
@@ -3404,8 +3642,35 @@
       <c r="AD29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="4:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>3</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>2</v>
+      </c>
+      <c r="AI29">
+        <v>3</v>
+      </c>
+      <c r="AJ29">
+        <v>3</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="4:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H30">
         <v>4</v>
       </c>
@@ -3475,8 +3740,35 @@
       <c r="AD30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="4:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE30">
+        <v>3</v>
+      </c>
+      <c r="AF30">
+        <v>3</v>
+      </c>
+      <c r="AG30">
+        <v>3</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>3</v>
+      </c>
+      <c r="AJ30">
+        <v>3</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>3</v>
+      </c>
+      <c r="AM30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="4:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H31">
         <v>4</v>
       </c>
@@ -3546,8 +3838,35 @@
       <c r="AD31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="4:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE31">
+        <v>3</v>
+      </c>
+      <c r="AF31">
+        <v>3</v>
+      </c>
+      <c r="AG31">
+        <v>3</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>3</v>
+      </c>
+      <c r="AJ31">
+        <v>3</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>3</v>
+      </c>
+      <c r="AM31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="4:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I32">
         <v>4</v>
       </c>
@@ -3614,8 +3933,35 @@
       <c r="AD32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="9:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE32">
+        <v>3</v>
+      </c>
+      <c r="AF32">
+        <v>3</v>
+      </c>
+      <c r="AG32">
+        <v>3</v>
+      </c>
+      <c r="AH32">
+        <v>3</v>
+      </c>
+      <c r="AI32">
+        <v>3</v>
+      </c>
+      <c r="AJ32">
+        <v>3</v>
+      </c>
+      <c r="AK32">
+        <v>3</v>
+      </c>
+      <c r="AL32">
+        <v>3</v>
+      </c>
+      <c r="AM32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I33">
         <v>4</v>
       </c>
@@ -3682,8 +4028,35 @@
       <c r="AD33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="9:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <v>3</v>
+      </c>
+      <c r="AH33">
+        <v>3</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
+      </c>
+      <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>3</v>
+      </c>
+      <c r="AM33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I34">
         <v>4</v>
       </c>
@@ -3750,8 +4123,35 @@
       <c r="AD34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="9:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>3</v>
+      </c>
+      <c r="AG34">
+        <v>3</v>
+      </c>
+      <c r="AH34">
+        <v>3</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
+      </c>
+      <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>4</v>
+      </c>
+      <c r="AL34">
+        <v>4</v>
+      </c>
+      <c r="AM34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K35">
         <v>4</v>
       </c>
@@ -3812,8 +4212,35 @@
       <c r="AD35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="9:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>3</v>
+      </c>
+      <c r="AG35">
+        <v>3</v>
+      </c>
+      <c r="AH35">
+        <v>3</v>
+      </c>
+      <c r="AI35">
+        <v>3</v>
+      </c>
+      <c r="AJ35">
+        <v>3</v>
+      </c>
+      <c r="AK35">
+        <v>3</v>
+      </c>
+      <c r="AL35">
+        <v>3</v>
+      </c>
+      <c r="AM35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K36">
         <v>4</v>
       </c>
@@ -3874,8 +4301,35 @@
       <c r="AD36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="9:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36">
+        <v>1</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
+      </c>
+      <c r="AJ36">
+        <v>3</v>
+      </c>
+      <c r="AK36">
+        <v>3</v>
+      </c>
+      <c r="AL36">
+        <v>3</v>
+      </c>
+      <c r="AM36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K37">
         <v>4</v>
       </c>
@@ -3936,8 +4390,56 @@
       <c r="AD37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="9:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+      <c r="AG37">
+        <v>3</v>
+      </c>
+      <c r="AH37">
+        <v>3</v>
+      </c>
+      <c r="AI37">
+        <v>3</v>
+      </c>
+      <c r="AJ37">
+        <v>3</v>
+      </c>
+      <c r="AK37">
+        <v>3</v>
+      </c>
+      <c r="AL37">
+        <v>3</v>
+      </c>
+      <c r="AM37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>3</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
       <c r="R38">
         <v>3</v>
       </c>
@@ -3977,14 +4479,71 @@
       <c r="AD38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="9:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE38">
+        <v>3</v>
+      </c>
+      <c r="AF38">
+        <v>3</v>
+      </c>
+      <c r="AG38">
+        <v>3</v>
+      </c>
+      <c r="AH38">
+        <v>3</v>
+      </c>
+      <c r="AI38">
+        <v>3</v>
+      </c>
+      <c r="AJ38">
+        <v>3</v>
+      </c>
+      <c r="AK38">
+        <v>3</v>
+      </c>
+      <c r="AL38">
+        <v>3</v>
+      </c>
+      <c r="AM38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
       <c r="R39">
         <v>3</v>
       </c>
       <c r="S39">
         <v>1</v>
       </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>3</v>
+      </c>
+      <c r="W39">
+        <v>3</v>
+      </c>
       <c r="X39">
         <v>3</v>
       </c>
@@ -4006,8 +4565,71 @@
       <c r="AD39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="9:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE39">
+        <v>3</v>
+      </c>
+      <c r="AF39">
+        <v>3</v>
+      </c>
+      <c r="AG39">
+        <v>3</v>
+      </c>
+      <c r="AH39">
+        <v>3</v>
+      </c>
+      <c r="AI39">
+        <v>3</v>
+      </c>
+      <c r="AJ39">
+        <v>3</v>
+      </c>
+      <c r="AK39">
+        <v>3</v>
+      </c>
+      <c r="AL39">
+        <v>3</v>
+      </c>
+      <c r="AM39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>3</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>2</v>
+      </c>
       <c r="X40">
         <v>0</v>
       </c>
@@ -4029,42 +4651,4010 @@
       <c r="AD40">
         <v>3</v>
       </c>
+      <c r="AE40">
+        <v>3</v>
+      </c>
+      <c r="AF40">
+        <v>3</v>
+      </c>
+      <c r="AG40">
+        <v>3</v>
+      </c>
+      <c r="AH40">
+        <v>3</v>
+      </c>
+      <c r="AI40">
+        <v>3</v>
+      </c>
+      <c r="AJ40">
+        <v>3</v>
+      </c>
+      <c r="AK40">
+        <v>3</v>
+      </c>
+      <c r="AL40">
+        <v>3</v>
+      </c>
+      <c r="AM40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>3</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>3</v>
+      </c>
+      <c r="AB41">
+        <v>4</v>
+      </c>
+      <c r="AC41">
+        <v>4</v>
+      </c>
+      <c r="AD41">
+        <v>4</v>
+      </c>
+      <c r="AE41">
+        <v>4</v>
+      </c>
+      <c r="AF41">
+        <v>4</v>
+      </c>
+      <c r="AG41">
+        <v>4</v>
+      </c>
+      <c r="AH41">
+        <v>4</v>
+      </c>
+      <c r="AI41">
+        <v>4</v>
+      </c>
+      <c r="AJ41">
+        <v>4</v>
+      </c>
+      <c r="AK41">
+        <v>4</v>
+      </c>
+      <c r="AL41">
+        <v>4</v>
+      </c>
+      <c r="AM41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>3</v>
+      </c>
+      <c r="T42">
+        <v>3</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>3</v>
+      </c>
+      <c r="X42">
+        <v>3</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>3</v>
+      </c>
+      <c r="AA42">
+        <v>3</v>
+      </c>
+      <c r="AB42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>3</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43">
+        <v>3</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <v>3</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>3</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>3</v>
+      </c>
+      <c r="AB44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>3</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>3</v>
+      </c>
+      <c r="V45">
+        <v>3</v>
+      </c>
+      <c r="W45">
+        <v>3</v>
+      </c>
+      <c r="X45">
+        <v>3</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>2</v>
+      </c>
+      <c r="AA45">
+        <v>3</v>
+      </c>
+      <c r="AB45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>3</v>
+      </c>
+      <c r="S46">
+        <v>3</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <v>3</v>
+      </c>
+      <c r="X46">
+        <v>3</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>2</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>3</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>3</v>
+      </c>
+      <c r="Z47">
+        <v>3</v>
+      </c>
+      <c r="AA47">
+        <v>3</v>
+      </c>
+      <c r="AB47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>3</v>
+      </c>
+      <c r="Y48">
+        <v>3</v>
+      </c>
+      <c r="Z48">
+        <v>3</v>
+      </c>
+      <c r="AA48">
+        <v>3</v>
+      </c>
+      <c r="AB48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49">
+        <v>3</v>
+      </c>
+      <c r="Q49">
+        <v>3</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>3</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>3</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>3</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>3</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>3</v>
+      </c>
+      <c r="V50">
+        <v>3</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>2</v>
+      </c>
+      <c r="AB50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>3</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="R51">
+        <v>3</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>3</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>2</v>
+      </c>
+      <c r="AB51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>3</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>3</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>3</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>2</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>3</v>
+      </c>
+      <c r="AB52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>4</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>3</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>3</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>4</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>3</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>3</v>
+      </c>
+      <c r="Z54">
+        <v>3</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <v>3</v>
+      </c>
+      <c r="P55">
+        <v>3</v>
+      </c>
+      <c r="Q55">
+        <v>3</v>
+      </c>
+      <c r="R55">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <v>3</v>
+      </c>
+      <c r="T55">
+        <v>3</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <v>3</v>
+      </c>
+      <c r="X55">
+        <v>2</v>
+      </c>
+      <c r="Y55">
+        <v>2</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>4</v>
+      </c>
+      <c r="AC55">
+        <v>4</v>
+      </c>
+      <c r="AD55">
+        <v>4</v>
+      </c>
+      <c r="AE55">
+        <v>4</v>
+      </c>
+      <c r="AF55">
+        <v>4</v>
+      </c>
+      <c r="AG55">
+        <v>4</v>
+      </c>
+      <c r="AH55">
+        <v>4</v>
+      </c>
+      <c r="AI55">
+        <v>4</v>
+      </c>
+      <c r="AJ55">
+        <v>4</v>
+      </c>
+      <c r="AK55">
+        <v>4</v>
+      </c>
+      <c r="AL55">
+        <v>4</v>
+      </c>
+      <c r="AM55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>3</v>
+      </c>
+      <c r="R56">
+        <v>3</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
+        <v>2</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>3</v>
+      </c>
+      <c r="AE56">
+        <v>2</v>
+      </c>
+      <c r="AF56">
+        <v>3</v>
+      </c>
+      <c r="AG56">
+        <v>3</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>3</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>3</v>
+      </c>
+      <c r="AL56">
+        <v>3</v>
+      </c>
+      <c r="AM56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>3</v>
+      </c>
+      <c r="P57">
+        <v>3</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>3</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>2</v>
+      </c>
+      <c r="Z57">
+        <v>3</v>
+      </c>
+      <c r="AA57">
+        <v>3</v>
+      </c>
+      <c r="AB57">
+        <v>3</v>
+      </c>
+      <c r="AC57">
+        <v>3</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>3</v>
+      </c>
+      <c r="AH57">
+        <v>1</v>
+      </c>
+      <c r="AI57">
+        <v>1</v>
+      </c>
+      <c r="AJ57">
+        <v>1</v>
+      </c>
+      <c r="AK57">
+        <v>2</v>
+      </c>
+      <c r="AL57">
+        <v>3</v>
+      </c>
+      <c r="AM57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>3</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>3</v>
+      </c>
+      <c r="S58">
+        <v>3</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+      <c r="Y58">
+        <v>2</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>3</v>
+      </c>
+      <c r="AC58">
+        <v>3</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>3</v>
+      </c>
+      <c r="AG58">
+        <v>3</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>3</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>3</v>
+      </c>
+      <c r="AM58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>3</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>3</v>
+      </c>
+      <c r="S59">
+        <v>3</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>3</v>
+      </c>
+      <c r="AC59">
+        <v>3</v>
+      </c>
+      <c r="AD59">
+        <v>3</v>
+      </c>
+      <c r="AE59">
+        <v>3</v>
+      </c>
+      <c r="AF59">
+        <v>3</v>
+      </c>
+      <c r="AG59">
+        <v>3</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>3</v>
+      </c>
+      <c r="AM59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>3</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>3</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>3</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>3</v>
+      </c>
+      <c r="Y60">
+        <v>3</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>4</v>
+      </c>
+      <c r="AC60">
+        <v>4</v>
+      </c>
+      <c r="AD60">
+        <v>4</v>
+      </c>
+      <c r="AE60">
+        <v>4</v>
+      </c>
+      <c r="AF60">
+        <v>3</v>
+      </c>
+      <c r="AG60">
+        <v>3</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>3</v>
+      </c>
+      <c r="AM60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>3</v>
+      </c>
+      <c r="R61">
+        <v>3</v>
+      </c>
+      <c r="S61">
+        <v>3</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>3</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>4</v>
+      </c>
+      <c r="AE61">
+        <v>4</v>
+      </c>
+      <c r="AF61">
+        <v>4</v>
+      </c>
+      <c r="AG61">
+        <v>4</v>
+      </c>
+      <c r="AH61">
+        <v>4</v>
+      </c>
+      <c r="AI61">
+        <v>1</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>1</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>3</v>
+      </c>
+      <c r="P62">
+        <v>3</v>
+      </c>
+      <c r="Q62">
+        <v>3</v>
+      </c>
+      <c r="R62">
+        <v>3</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>2</v>
+      </c>
+      <c r="U62">
+        <v>3</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>3</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>4</v>
+      </c>
+      <c r="AH62">
+        <v>4</v>
+      </c>
+      <c r="AI62">
+        <v>3</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>3</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>3</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>2</v>
+      </c>
+      <c r="X63">
+        <v>3</v>
+      </c>
+      <c r="Y63">
+        <v>3</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>4</v>
+      </c>
+      <c r="AH63">
+        <v>4</v>
+      </c>
+      <c r="AI63">
+        <v>3</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AM63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="9:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>3</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>3</v>
+      </c>
+      <c r="S64">
+        <v>3</v>
+      </c>
+      <c r="T64">
+        <v>3</v>
+      </c>
+      <c r="U64">
+        <v>3</v>
+      </c>
+      <c r="V64">
+        <v>3</v>
+      </c>
+      <c r="W64">
+        <v>3</v>
+      </c>
+      <c r="X64">
+        <v>3</v>
+      </c>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>4</v>
+      </c>
+      <c r="AH64">
+        <v>4</v>
+      </c>
+      <c r="AI64">
+        <v>3</v>
+      </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>2</v>
+      </c>
+      <c r="AL64">
+        <v>2</v>
+      </c>
+      <c r="AM64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="9:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>3</v>
+      </c>
+      <c r="S65">
+        <v>3</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="U65">
+        <v>3</v>
+      </c>
+      <c r="V65">
+        <v>3</v>
+      </c>
+      <c r="W65">
+        <v>3</v>
+      </c>
+      <c r="X65">
+        <v>3</v>
+      </c>
+      <c r="Y65">
+        <v>3</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>4</v>
+      </c>
+      <c r="AH65">
+        <v>4</v>
+      </c>
+      <c r="AI65">
+        <v>3</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>2</v>
+      </c>
+      <c r="AL65">
+        <v>2</v>
+      </c>
+      <c r="AM65">
+        <v>4</v>
+      </c>
+      <c r="AN65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="9:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66">
+        <v>2</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>3</v>
+      </c>
+      <c r="S66">
+        <v>3</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>4</v>
+      </c>
+      <c r="AG66">
+        <v>4</v>
+      </c>
+      <c r="AH66">
+        <v>4</v>
+      </c>
+      <c r="AI66">
+        <v>3</v>
+      </c>
+      <c r="AJ66">
+        <v>3</v>
+      </c>
+      <c r="AK66">
+        <v>3</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="9:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>3</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67">
+        <v>3</v>
+      </c>
+      <c r="P67">
+        <v>3</v>
+      </c>
+      <c r="Q67">
+        <v>3</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>2</v>
+      </c>
+      <c r="T67">
+        <v>2</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>1</v>
+      </c>
+      <c r="AA67">
+        <v>3</v>
+      </c>
+      <c r="AB67">
+        <v>4</v>
+      </c>
+      <c r="AG67">
+        <v>4</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>3</v>
+      </c>
+      <c r="AM67">
+        <v>3</v>
+      </c>
+      <c r="AN67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="9:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>4</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68">
+        <v>3</v>
+      </c>
+      <c r="P68">
+        <v>3</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>3</v>
+      </c>
+      <c r="S68">
+        <v>3</v>
+      </c>
+      <c r="T68">
+        <v>3</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>3</v>
+      </c>
+      <c r="W68">
+        <v>3</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>3</v>
+      </c>
+      <c r="Z68">
+        <v>3</v>
+      </c>
+      <c r="AA68">
+        <v>3</v>
+      </c>
+      <c r="AB68">
+        <v>4</v>
+      </c>
+      <c r="AG68">
+        <v>4</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="9:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>3</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>2</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>3</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>3</v>
+      </c>
+      <c r="W69">
+        <v>3</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
+      </c>
+      <c r="Y69">
+        <v>3</v>
+      </c>
+      <c r="Z69">
+        <v>3</v>
+      </c>
+      <c r="AA69">
+        <v>3</v>
+      </c>
+      <c r="AB69">
+        <v>4</v>
+      </c>
+      <c r="AC69">
+        <v>4</v>
+      </c>
+      <c r="AG69">
+        <v>4</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <v>4</v>
+      </c>
+      <c r="AN69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="9:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>3</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>3</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>3</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+      <c r="V70">
+        <v>3</v>
+      </c>
+      <c r="W70">
+        <v>3</v>
+      </c>
+      <c r="X70">
+        <v>3</v>
+      </c>
+      <c r="Y70">
+        <v>3</v>
+      </c>
+      <c r="Z70">
+        <v>3</v>
+      </c>
+      <c r="AA70">
+        <v>3</v>
+      </c>
+      <c r="AB70">
+        <v>3</v>
+      </c>
+      <c r="AC70">
+        <v>4</v>
+      </c>
+      <c r="AG70">
+        <v>4</v>
+      </c>
+      <c r="AH70">
+        <v>4</v>
+      </c>
+      <c r="AI70">
+        <v>4</v>
+      </c>
+      <c r="AJ70">
+        <v>4</v>
+      </c>
+      <c r="AK70">
+        <v>4</v>
+      </c>
+      <c r="AL70">
+        <v>4</v>
+      </c>
+      <c r="AM70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="9:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <v>3</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71">
+        <v>3</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71">
+        <v>3</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>3</v>
+      </c>
+      <c r="R71">
+        <v>3</v>
+      </c>
+      <c r="S71">
+        <v>3</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>3</v>
+      </c>
+      <c r="V71">
+        <v>3</v>
+      </c>
+      <c r="W71">
+        <v>3</v>
+      </c>
+      <c r="X71">
+        <v>3</v>
+      </c>
+      <c r="Y71">
+        <v>3</v>
+      </c>
+      <c r="Z71">
+        <v>3</v>
+      </c>
+      <c r="AA71">
+        <v>3</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>4</v>
+      </c>
+      <c r="AD71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="9:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>4</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72">
+        <v>2</v>
+      </c>
+      <c r="P72">
+        <v>3</v>
+      </c>
+      <c r="Q72">
+        <v>3</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>3</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>3</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>3</v>
+      </c>
+      <c r="Y72">
+        <v>3</v>
+      </c>
+      <c r="Z72">
+        <v>3</v>
+      </c>
+      <c r="AA72">
+        <v>3</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>3</v>
+      </c>
+      <c r="AD72">
+        <v>4</v>
+      </c>
+      <c r="AE72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="9:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>4</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73">
+        <v>2</v>
+      </c>
+      <c r="P73">
+        <v>3</v>
+      </c>
+      <c r="Q73">
+        <v>3</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>3</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>3</v>
+      </c>
+      <c r="V73">
+        <v>2</v>
+      </c>
+      <c r="W73">
+        <v>2</v>
+      </c>
+      <c r="X73">
+        <v>3</v>
+      </c>
+      <c r="Y73">
+        <v>3</v>
+      </c>
+      <c r="Z73">
+        <v>3</v>
+      </c>
+      <c r="AA73">
+        <v>3</v>
+      </c>
+      <c r="AB73">
+        <v>3</v>
+      </c>
+      <c r="AC73">
+        <v>3</v>
+      </c>
+      <c r="AD73">
+        <v>3</v>
+      </c>
+      <c r="AE73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="9:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>4</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74">
+        <v>2</v>
+      </c>
+      <c r="P74">
+        <v>3</v>
+      </c>
+      <c r="Q74">
+        <v>3</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>2</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>3</v>
+      </c>
+      <c r="Y74">
+        <v>3</v>
+      </c>
+      <c r="Z74">
+        <v>3</v>
+      </c>
+      <c r="AA74">
+        <v>3</v>
+      </c>
+      <c r="AB74">
+        <v>3</v>
+      </c>
+      <c r="AC74">
+        <v>3</v>
+      </c>
+      <c r="AD74">
+        <v>3</v>
+      </c>
+      <c r="AE74">
+        <v>4</v>
+      </c>
+      <c r="AF74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="9:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>4</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>3</v>
+      </c>
+      <c r="P75">
+        <v>3</v>
+      </c>
+      <c r="Q75">
+        <v>3</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>3</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>3</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>3</v>
+      </c>
+      <c r="AE75">
+        <v>2</v>
+      </c>
+      <c r="AF75">
+        <v>4</v>
+      </c>
+      <c r="AG75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="9:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76">
+        <v>3</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>3</v>
+      </c>
+      <c r="R76">
+        <v>3</v>
+      </c>
+      <c r="S76">
+        <v>3</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>3</v>
+      </c>
+      <c r="V76">
+        <v>3</v>
+      </c>
+      <c r="W76">
+        <v>3</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>3</v>
+      </c>
+      <c r="AB76">
+        <v>3</v>
+      </c>
+      <c r="AC76">
+        <v>3</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>3</v>
+      </c>
+      <c r="AF76">
+        <v>3</v>
+      </c>
+      <c r="AG76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="9:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>4</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
+        <v>4</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77">
+        <v>3</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>3</v>
+      </c>
+      <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77">
+        <v>3</v>
+      </c>
+      <c r="W77">
+        <v>3</v>
+      </c>
+      <c r="X77">
+        <v>3</v>
+      </c>
+      <c r="Y77">
+        <v>3</v>
+      </c>
+      <c r="Z77">
+        <v>3</v>
+      </c>
+      <c r="AA77">
+        <v>3</v>
+      </c>
+      <c r="AB77">
+        <v>3</v>
+      </c>
+      <c r="AC77">
+        <v>3</v>
+      </c>
+      <c r="AD77">
+        <v>3</v>
+      </c>
+      <c r="AE77">
+        <v>3</v>
+      </c>
+      <c r="AF77">
+        <v>3</v>
+      </c>
+      <c r="AG77">
+        <v>4</v>
+      </c>
+      <c r="AH77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="9:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>4</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78">
+        <v>3</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>3</v>
+      </c>
+      <c r="R78">
+        <v>3</v>
+      </c>
+      <c r="S78">
+        <v>3</v>
+      </c>
+      <c r="T78">
+        <v>3</v>
+      </c>
+      <c r="U78">
+        <v>2</v>
+      </c>
+      <c r="V78">
+        <v>2</v>
+      </c>
+      <c r="W78">
+        <v>3</v>
+      </c>
+      <c r="X78">
+        <v>3</v>
+      </c>
+      <c r="Y78">
+        <v>3</v>
+      </c>
+      <c r="Z78">
+        <v>3</v>
+      </c>
+      <c r="AA78">
+        <v>1</v>
+      </c>
+      <c r="AB78">
+        <v>3</v>
+      </c>
+      <c r="AC78">
+        <v>3</v>
+      </c>
+      <c r="AD78">
+        <v>3</v>
+      </c>
+      <c r="AE78">
+        <v>3</v>
+      </c>
+      <c r="AF78">
+        <v>3</v>
+      </c>
+      <c r="AG78">
+        <v>3</v>
+      </c>
+      <c r="AH78">
+        <v>4</v>
+      </c>
+      <c r="AI78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="9:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>4</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>3</v>
+      </c>
+      <c r="R79">
+        <v>3</v>
+      </c>
+      <c r="S79">
+        <v>3</v>
+      </c>
+      <c r="T79">
+        <v>3</v>
+      </c>
+      <c r="U79">
+        <v>3</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>3</v>
+      </c>
+      <c r="Y79">
+        <v>3</v>
+      </c>
+      <c r="Z79">
+        <v>3</v>
+      </c>
+      <c r="AA79">
+        <v>3</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>3</v>
+      </c>
+      <c r="AD79">
+        <v>3</v>
+      </c>
+      <c r="AE79">
+        <v>3</v>
+      </c>
+      <c r="AF79">
+        <v>3</v>
+      </c>
+      <c r="AG79">
+        <v>3</v>
+      </c>
+      <c r="AH79">
+        <v>3</v>
+      </c>
+      <c r="AI79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="9:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80">
+        <v>3</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>3</v>
+      </c>
+      <c r="R80">
+        <v>3</v>
+      </c>
+      <c r="S80">
+        <v>3</v>
+      </c>
+      <c r="T80">
+        <v>3</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>3</v>
+      </c>
+      <c r="Y80">
+        <v>3</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>3</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>3</v>
+      </c>
+      <c r="AE80">
+        <v>3</v>
+      </c>
+      <c r="AF80">
+        <v>3</v>
+      </c>
+      <c r="AG80">
+        <v>3</v>
+      </c>
+      <c r="AH80">
+        <v>3</v>
+      </c>
+      <c r="AI80">
+        <v>4</v>
+      </c>
+      <c r="AJ80">
+        <v>4</v>
+      </c>
+      <c r="AK80">
+        <v>4</v>
+      </c>
+      <c r="AL80">
+        <v>4</v>
+      </c>
+      <c r="AM80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="14:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81">
+        <v>4</v>
+      </c>
+      <c r="P81">
+        <v>3</v>
+      </c>
+      <c r="Q81">
+        <v>3</v>
+      </c>
+      <c r="R81">
+        <v>3</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>3</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>3</v>
+      </c>
+      <c r="W81">
+        <v>3</v>
+      </c>
+      <c r="X81">
+        <v>3</v>
+      </c>
+      <c r="Y81">
+        <v>3</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>3</v>
+      </c>
+      <c r="AB81">
+        <v>3</v>
+      </c>
+      <c r="AC81">
+        <v>3</v>
+      </c>
+      <c r="AD81">
+        <v>3</v>
+      </c>
+      <c r="AE81">
+        <v>3</v>
+      </c>
+      <c r="AF81">
+        <v>3</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>1</v>
+      </c>
+      <c r="AJ81">
+        <v>1</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>3</v>
+      </c>
+      <c r="AM81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="14:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O82">
+        <v>4</v>
+      </c>
+      <c r="P82">
+        <v>4</v>
+      </c>
+      <c r="Q82">
+        <v>3</v>
+      </c>
+      <c r="R82">
+        <v>3</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>3</v>
+      </c>
+      <c r="W82">
+        <v>3</v>
+      </c>
+      <c r="X82">
+        <v>3</v>
+      </c>
+      <c r="Y82">
+        <v>3</v>
+      </c>
+      <c r="Z82">
+        <v>3</v>
+      </c>
+      <c r="AA82">
+        <v>2</v>
+      </c>
+      <c r="AB82">
+        <v>2</v>
+      </c>
+      <c r="AC82">
+        <v>3</v>
+      </c>
+      <c r="AD82">
+        <v>1</v>
+      </c>
+      <c r="AE82">
+        <v>3</v>
+      </c>
+      <c r="AF82">
+        <v>3</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>3</v>
+      </c>
+      <c r="AJ82">
+        <v>3</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>3</v>
+      </c>
+      <c r="AM82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="14:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P83">
+        <v>4</v>
+      </c>
+      <c r="Q83">
+        <v>4</v>
+      </c>
+      <c r="R83">
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <v>3</v>
+      </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
+        <v>3</v>
+      </c>
+      <c r="V83">
+        <v>3</v>
+      </c>
+      <c r="W83">
+        <v>1</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>3</v>
+      </c>
+      <c r="Z83">
+        <v>3</v>
+      </c>
+      <c r="AA83">
+        <v>3</v>
+      </c>
+      <c r="AB83">
+        <v>3</v>
+      </c>
+      <c r="AC83">
+        <v>3</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>3</v>
+      </c>
+      <c r="AF83">
+        <v>3</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>3</v>
+      </c>
+      <c r="AJ83">
+        <v>3</v>
+      </c>
+      <c r="AK83">
+        <v>3</v>
+      </c>
+      <c r="AL83">
+        <v>3</v>
+      </c>
+      <c r="AM83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="14:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <v>4</v>
+      </c>
+      <c r="R84">
+        <v>3</v>
+      </c>
+      <c r="S84">
+        <v>3</v>
+      </c>
+      <c r="T84">
+        <v>3</v>
+      </c>
+      <c r="U84">
+        <v>3</v>
+      </c>
+      <c r="V84">
+        <v>3</v>
+      </c>
+      <c r="W84">
+        <v>2</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>3</v>
+      </c>
+      <c r="Z84">
+        <v>3</v>
+      </c>
+      <c r="AA84">
+        <v>3</v>
+      </c>
+      <c r="AB84">
+        <v>3</v>
+      </c>
+      <c r="AC84">
+        <v>3</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>3</v>
+      </c>
+      <c r="AF84">
+        <v>3</v>
+      </c>
+      <c r="AG84">
+        <v>3</v>
+      </c>
+      <c r="AH84">
+        <v>3</v>
+      </c>
+      <c r="AI84">
+        <v>3</v>
+      </c>
+      <c r="AJ84">
+        <v>3</v>
+      </c>
+      <c r="AK84">
+        <v>3</v>
+      </c>
+      <c r="AL84">
+        <v>3</v>
+      </c>
+      <c r="AM84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="14:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <v>4</v>
+      </c>
+      <c r="S85">
+        <v>3</v>
+      </c>
+      <c r="T85">
+        <v>3</v>
+      </c>
+      <c r="U85">
+        <v>3</v>
+      </c>
+      <c r="V85">
+        <v>3</v>
+      </c>
+      <c r="W85">
+        <v>1</v>
+      </c>
+      <c r="X85">
+        <v>3</v>
+      </c>
+      <c r="Y85">
+        <v>3</v>
+      </c>
+      <c r="Z85">
+        <v>3</v>
+      </c>
+      <c r="AA85">
+        <v>3</v>
+      </c>
+      <c r="AB85">
+        <v>3</v>
+      </c>
+      <c r="AC85">
+        <v>3</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>3</v>
+      </c>
+      <c r="AF85">
+        <v>3</v>
+      </c>
+      <c r="AG85">
+        <v>3</v>
+      </c>
+      <c r="AH85">
+        <v>3</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>3</v>
+      </c>
+      <c r="AK85">
+        <v>3</v>
+      </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="14:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R86">
+        <v>4</v>
+      </c>
+      <c r="S86">
+        <v>3</v>
+      </c>
+      <c r="T86">
+        <v>3</v>
+      </c>
+      <c r="U86">
+        <v>3</v>
+      </c>
+      <c r="V86">
+        <v>3</v>
+      </c>
+      <c r="W86">
+        <v>3</v>
+      </c>
+      <c r="X86">
+        <v>3</v>
+      </c>
+      <c r="Y86">
+        <v>3</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>3</v>
+      </c>
+      <c r="AB86">
+        <v>3</v>
+      </c>
+      <c r="AC86">
+        <v>2</v>
+      </c>
+      <c r="AD86">
+        <v>3</v>
+      </c>
+      <c r="AE86">
+        <v>3</v>
+      </c>
+      <c r="AF86">
+        <v>3</v>
+      </c>
+      <c r="AG86">
+        <v>3</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>3</v>
+      </c>
+      <c r="AK86">
+        <v>3</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="14:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R87">
+        <v>4</v>
+      </c>
+      <c r="S87">
+        <v>4</v>
+      </c>
+      <c r="T87">
+        <v>3</v>
+      </c>
+      <c r="U87">
+        <v>3</v>
+      </c>
+      <c r="V87">
+        <v>3</v>
+      </c>
+      <c r="W87">
+        <v>3</v>
+      </c>
+      <c r="X87">
+        <v>3</v>
+      </c>
+      <c r="Y87">
+        <v>3</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>3</v>
+      </c>
+      <c r="AB87">
+        <v>1</v>
+      </c>
+      <c r="AC87">
+        <v>1</v>
+      </c>
+      <c r="AD87">
+        <v>3</v>
+      </c>
+      <c r="AE87">
+        <v>3</v>
+      </c>
+      <c r="AF87">
+        <v>3</v>
+      </c>
+      <c r="AG87">
+        <v>3</v>
+      </c>
+      <c r="AH87">
+        <v>3</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>3</v>
+      </c>
+      <c r="AK87">
+        <v>3</v>
+      </c>
+      <c r="AL87">
+        <v>3</v>
+      </c>
+      <c r="AM87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="14:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S88">
+        <v>4</v>
+      </c>
+      <c r="T88">
+        <v>4</v>
+      </c>
+      <c r="U88">
+        <v>3</v>
+      </c>
+      <c r="V88">
+        <v>3</v>
+      </c>
+      <c r="W88">
+        <v>3</v>
+      </c>
+      <c r="X88">
+        <v>3</v>
+      </c>
+      <c r="Y88">
+        <v>3</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>3</v>
+      </c>
+      <c r="AB88">
+        <v>3</v>
+      </c>
+      <c r="AC88">
+        <v>3</v>
+      </c>
+      <c r="AD88">
+        <v>3</v>
+      </c>
+      <c r="AE88">
+        <v>3</v>
+      </c>
+      <c r="AF88">
+        <v>3</v>
+      </c>
+      <c r="AG88">
+        <v>3</v>
+      </c>
+      <c r="AH88">
+        <v>3</v>
+      </c>
+      <c r="AI88">
+        <v>3</v>
+      </c>
+      <c r="AJ88">
+        <v>3</v>
+      </c>
+      <c r="AK88">
+        <v>3</v>
+      </c>
+      <c r="AL88">
+        <v>3</v>
+      </c>
+      <c r="AM88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="14:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T89">
+        <v>4</v>
+      </c>
+      <c r="U89">
+        <v>3</v>
+      </c>
+      <c r="V89">
+        <v>3</v>
+      </c>
+      <c r="W89">
+        <v>3</v>
+      </c>
+      <c r="X89">
+        <v>3</v>
+      </c>
+      <c r="Y89">
+        <v>3</v>
+      </c>
+      <c r="Z89">
+        <v>3</v>
+      </c>
+      <c r="AA89">
+        <v>3</v>
+      </c>
+      <c r="AB89">
+        <v>3</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>3</v>
+      </c>
+      <c r="AE89">
+        <v>3</v>
+      </c>
+      <c r="AF89">
+        <v>3</v>
+      </c>
+      <c r="AG89">
+        <v>2</v>
+      </c>
+      <c r="AH89">
+        <v>2</v>
+      </c>
+      <c r="AI89">
+        <v>3</v>
+      </c>
+      <c r="AJ89">
+        <v>3</v>
+      </c>
+      <c r="AK89">
+        <v>3</v>
+      </c>
+      <c r="AL89">
+        <v>3</v>
+      </c>
+      <c r="AM89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="14:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T90">
+        <v>4</v>
+      </c>
+      <c r="U90">
+        <v>4</v>
+      </c>
+      <c r="V90">
+        <v>3</v>
+      </c>
+      <c r="W90">
+        <v>3</v>
+      </c>
+      <c r="X90">
+        <v>3</v>
+      </c>
+      <c r="Y90">
+        <v>3</v>
+      </c>
+      <c r="Z90">
+        <v>3</v>
+      </c>
+      <c r="AA90">
+        <v>3</v>
+      </c>
+      <c r="AB90">
+        <v>3</v>
+      </c>
+      <c r="AC90">
+        <v>2</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>2</v>
+      </c>
+      <c r="AF90">
+        <v>3</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>2</v>
+      </c>
+      <c r="AI90">
+        <v>3</v>
+      </c>
+      <c r="AJ90">
+        <v>3</v>
+      </c>
+      <c r="AK90">
+        <v>3</v>
+      </c>
+      <c r="AL90">
+        <v>3</v>
+      </c>
+      <c r="AM90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="14:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U91">
+        <v>4</v>
+      </c>
+      <c r="V91">
+        <v>4</v>
+      </c>
+      <c r="W91">
+        <v>3</v>
+      </c>
+      <c r="X91">
+        <v>3</v>
+      </c>
+      <c r="Y91">
+        <v>3</v>
+      </c>
+      <c r="Z91">
+        <v>3</v>
+      </c>
+      <c r="AA91">
+        <v>3</v>
+      </c>
+      <c r="AB91">
+        <v>3</v>
+      </c>
+      <c r="AC91">
+        <v>3</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>2</v>
+      </c>
+      <c r="AF91">
+        <v>3</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>3</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
+        <v>3</v>
+      </c>
+      <c r="AK91">
+        <v>3</v>
+      </c>
+      <c r="AL91">
+        <v>3</v>
+      </c>
+      <c r="AM91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="14:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V92">
+        <v>4</v>
+      </c>
+      <c r="W92">
+        <v>4</v>
+      </c>
+      <c r="X92">
+        <v>3</v>
+      </c>
+      <c r="Y92">
+        <v>3</v>
+      </c>
+      <c r="Z92">
+        <v>3</v>
+      </c>
+      <c r="AA92">
+        <v>3</v>
+      </c>
+      <c r="AB92">
+        <v>1</v>
+      </c>
+      <c r="AC92">
+        <v>3</v>
+      </c>
+      <c r="AD92">
+        <v>3</v>
+      </c>
+      <c r="AE92">
+        <v>3</v>
+      </c>
+      <c r="AF92">
+        <v>3</v>
+      </c>
+      <c r="AG92">
+        <v>1</v>
+      </c>
+      <c r="AH92">
+        <v>1</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="14:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W93">
+        <v>4</v>
+      </c>
+      <c r="X93">
+        <v>3</v>
+      </c>
+      <c r="Y93">
+        <v>3</v>
+      </c>
+      <c r="Z93">
+        <v>3</v>
+      </c>
+      <c r="AA93">
+        <v>3</v>
+      </c>
+      <c r="AB93">
+        <v>3</v>
+      </c>
+      <c r="AC93">
+        <v>3</v>
+      </c>
+      <c r="AD93">
+        <v>3</v>
+      </c>
+      <c r="AE93">
+        <v>3</v>
+      </c>
+      <c r="AF93">
+        <v>3</v>
+      </c>
+      <c r="AG93">
+        <v>1</v>
+      </c>
+      <c r="AH93">
+        <v>3</v>
+      </c>
+      <c r="AI93">
+        <v>3</v>
+      </c>
+      <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>3</v>
+      </c>
+      <c r="AL93">
+        <v>3</v>
+      </c>
+      <c r="AM93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="14:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W94">
+        <v>4</v>
+      </c>
+      <c r="X94">
+        <v>4</v>
+      </c>
+      <c r="Y94">
+        <v>3</v>
+      </c>
+      <c r="Z94">
+        <v>3</v>
+      </c>
+      <c r="AA94">
+        <v>3</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>3</v>
+      </c>
+      <c r="AE94">
+        <v>3</v>
+      </c>
+      <c r="AF94">
+        <v>3</v>
+      </c>
+      <c r="AG94">
+        <v>1</v>
+      </c>
+      <c r="AH94">
+        <v>3</v>
+      </c>
+      <c r="AI94">
+        <v>3</v>
+      </c>
+      <c r="AJ94">
+        <v>3</v>
+      </c>
+      <c r="AK94">
+        <v>3</v>
+      </c>
+      <c r="AL94">
+        <v>3</v>
+      </c>
+      <c r="AM94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="14:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X95">
+        <v>4</v>
+      </c>
+      <c r="Y95">
+        <v>4</v>
+      </c>
+      <c r="Z95">
+        <v>3</v>
+      </c>
+      <c r="AA95">
+        <v>3</v>
+      </c>
+      <c r="AB95">
+        <v>3</v>
+      </c>
+      <c r="AC95">
+        <v>1</v>
+      </c>
+      <c r="AD95">
+        <v>3</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>3</v>
+      </c>
+      <c r="AJ95">
+        <v>3</v>
+      </c>
+      <c r="AK95">
+        <v>3</v>
+      </c>
+      <c r="AL95">
+        <v>3</v>
+      </c>
+      <c r="AM95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="14:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y96">
+        <v>4</v>
+      </c>
+      <c r="Z96">
+        <v>4</v>
+      </c>
+      <c r="AA96">
+        <v>4</v>
+      </c>
+      <c r="AB96">
+        <v>3</v>
+      </c>
+      <c r="AC96">
+        <v>3</v>
+      </c>
+      <c r="AD96">
+        <v>3</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>3</v>
+      </c>
+      <c r="AJ96">
+        <v>3</v>
+      </c>
+      <c r="AK96">
+        <v>3</v>
+      </c>
+      <c r="AL96">
+        <v>3</v>
+      </c>
+      <c r="AM96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="27:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA97">
+        <v>4</v>
+      </c>
+      <c r="AB97">
+        <v>4</v>
+      </c>
+      <c r="AC97">
+        <v>4</v>
+      </c>
+      <c r="AD97">
+        <v>4</v>
+      </c>
+      <c r="AE97">
+        <v>4</v>
+      </c>
+      <c r="AF97">
+        <v>4</v>
+      </c>
+      <c r="AG97">
+        <v>4</v>
+      </c>
+      <c r="AH97">
+        <v>4</v>
+      </c>
+      <c r="AI97">
+        <v>4</v>
+      </c>
+      <c r="AJ97">
+        <v>4</v>
+      </c>
+      <c r="AK97">
+        <v>4</v>
+      </c>
+      <c r="AL97">
+        <v>4</v>
+      </c>
+      <c r="AM97">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsBlanks" dxfId="18" priority="15">
+  <conditionalFormatting sqref="A1:XFD40 A41:AJ61 AL41:XFD61 A62:XFD1048576">
+    <cfRule type="containsBlanks" dxfId="24" priority="22">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" priority="23">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD12">
+    <cfRule type="containsBlanks" dxfId="17" priority="15">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="16">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD12">
+  <conditionalFormatting sqref="I31:O31">
     <cfRule type="containsBlanks" dxfId="11" priority="8">
-      <formula>LEN(TRIM(A1))=0</formula>
+      <formula>LEN(TRIM(I31))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="9">
-      <formula>LEN(TRIM(A1))=0</formula>
+      <formula>LEN(TRIM(I31))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>0</formula>
@@ -4082,12 +8672,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:O31">
+  <conditionalFormatting sqref="AK41:AK61">
     <cfRule type="containsBlanks" dxfId="5" priority="1">
-      <formula>LEN(TRIM(I31))=0</formula>
+      <formula>LEN(TRIM(AK41))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="2">
-      <formula>LEN(TRIM(I31))=0</formula>
+      <formula>LEN(TRIM(AK41))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
@@ -4163,6 +8753,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084DDAEFC8D976C4FB6F382A1C2EEBBF5" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c2f0ba4dfc0d82c9e10e27c36d70f398">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="8cbdc006-41eb-4d7f-b199-172e6709308c" xmlns:ns4="dd1d4fd1-2ee7-44ff-8b26-28b204d969a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4f66f2247d1ca14df994cb646c4503" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4402,25 +9010,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B457CF8C-3075-41A1-A73D-D167F14800CA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F4A03F-4535-41E1-B8E0-444F1E0F3220}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{984AEF79-92A2-4888-B85A-994DC4F59EAD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4438,18 +9042,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F4A03F-4535-41E1-B8E0-444F1E0F3220}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B457CF8C-3075-41A1-A73D-D167F14800CA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>